--- a/Assets/preloaded/product.xlsx
+++ b/Assets/preloaded/product.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>24-port 10/100M Switch</t>
-  </si>
-  <si>
-    <t>5-port Desktop Gigabit Switch</t>
-  </si>
-  <si>
-    <t>switch</t>
-  </si>
-  <si>
-    <t>TEST101</t>
-  </si>
-  <si>
-    <t>TEST102</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Part_Code</t>
   </si>
@@ -41,17 +26,331 @@
   <si>
     <t>Product_Category</t>
   </si>
+  <si>
+    <t>Amazon Kindle</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Apple iPod</t>
+  </si>
+  <si>
+    <t>Audio Highway Listen Up</t>
+  </si>
+  <si>
+    <t>Bose Noise-Canceling Headphones</t>
+  </si>
+  <si>
+    <t>Diamond Rio PMP300</t>
+  </si>
+  <si>
+    <t>Genica GN803 Tavarua</t>
+  </si>
+  <si>
+    <t>Logitech Harmony</t>
+  </si>
+  <si>
+    <t>Mattel Electronics Football</t>
+  </si>
+  <si>
+    <t>MusicGremlin Wi-Fi MP3 Player</t>
+  </si>
+  <si>
+    <t>Nintendo Game Boy</t>
+  </si>
+  <si>
+    <t>Optical Media</t>
+  </si>
+  <si>
+    <t>Panasonic DVD-L10</t>
+  </si>
+  <si>
+    <t>Regency TR-1</t>
+  </si>
+  <si>
+    <t>Sony Discman D-50</t>
+  </si>
+  <si>
+    <t>Sony Walkman TPS-L2</t>
+  </si>
+  <si>
+    <t>Sony Watchman</t>
+  </si>
+  <si>
+    <t>TiVo</t>
+  </si>
+  <si>
+    <t>Zenith Space Command</t>
+  </si>
+  <si>
+    <t>Apple AirPort</t>
+  </si>
+  <si>
+    <t>Computing</t>
+  </si>
+  <si>
+    <t>Apple iPad</t>
+  </si>
+  <si>
+    <t>Apple PowerBook 100</t>
+  </si>
+  <si>
+    <t>Asus Eee PC 700</t>
+  </si>
+  <si>
+    <t>Commodore 64</t>
+  </si>
+  <si>
+    <t>Connectix QuickCam</t>
+  </si>
+  <si>
+    <t>DiskOnKey</t>
+  </si>
+  <si>
+    <t>Engelbart Mouse</t>
+  </si>
+  <si>
+    <t>Epson HX-20</t>
+  </si>
+  <si>
+    <t>GRiD Compass 1101</t>
+  </si>
+  <si>
+    <t>Hewlett-Packard HP-65</t>
+  </si>
+  <si>
+    <t>Iomega Zip Drive</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Lego Mindstorms 1.0</t>
+  </si>
+  <si>
+    <t>MicroSD</t>
+  </si>
+  <si>
+    <t>MITS Altair 8800</t>
+  </si>
+  <si>
+    <t>Radio Shack TRS-80 Model 100</t>
+  </si>
+  <si>
+    <t>Texas Instruments SR-10</t>
+  </si>
+  <si>
+    <t>Apple iPhone</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Ballpoint Pen</t>
+  </si>
+  <si>
+    <t>Bell 103</t>
+  </si>
+  <si>
+    <t>Bellsouth IBM Simon</t>
+  </si>
+  <si>
+    <t>BlackBerry 6210</t>
+  </si>
+  <si>
+    <t>Bluetooth Headset</t>
+  </si>
+  <si>
+    <t>Danger Hiptop, a.k.a. Sidekick</t>
+  </si>
+  <si>
+    <t>Fisher AG7 Space Pen</t>
+  </si>
+  <si>
+    <t>Motorola DynaTAC 8000x</t>
+  </si>
+  <si>
+    <t>Motorola Handie-Talkie HT 220 Slimline</t>
+  </si>
+  <si>
+    <t>Motorola PageWriter 2000</t>
+  </si>
+  <si>
+    <t>Motorola Razr V3</t>
+  </si>
+  <si>
+    <t>Motorola StarTac</t>
+  </si>
+  <si>
+    <t>Novatel Wireless MiFi</t>
+  </si>
+  <si>
+    <t>Olympus Zuiko Pearlcorder</t>
+  </si>
+  <si>
+    <t>Pager</t>
+  </si>
+  <si>
+    <t>Palm Pilot 1000</t>
+  </si>
+  <si>
+    <t>PhoneMate Model 400</t>
+  </si>
+  <si>
+    <t>Samsung Uproar</t>
+  </si>
+  <si>
+    <t>Sharp J-SH04</t>
+  </si>
+  <si>
+    <t>Speak &amp; Spell</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -59,16 +358,237 @@
       <name val="新細明體"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -76,21 +596,344 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDEDEDE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_Book1 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="一般_Book1 2" xfId="4"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Currency" xfId="6" builtinId="4"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="8" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17"/>
+    <cellStyle name="Note" xfId="10" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="Title" xfId="17" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="Input" xfId="22" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
+    <cellStyle name="Good" xfId="24" builtinId="26"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -101,7 +944,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -113,9 +956,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Text Box 696"/>
         <xdr:cNvSpPr txBox="1">
@@ -124,7 +967,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -168,9 +1011,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Text Box 697"/>
         <xdr:cNvSpPr txBox="1">
@@ -179,7 +1022,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -223,9 +1066,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1">
@@ -234,7 +1077,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -278,9 +1121,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Text Box 699"/>
         <xdr:cNvSpPr txBox="1">
@@ -289,7 +1132,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -333,9 +1176,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Text Box 700"/>
         <xdr:cNvSpPr txBox="1">
@@ -344,7 +1187,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -388,9 +1231,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Text Box 701"/>
         <xdr:cNvSpPr txBox="1">
@@ -399,7 +1242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -443,9 +1286,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Text Box 703"/>
         <xdr:cNvSpPr txBox="1">
@@ -454,7 +1297,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -498,9 +1341,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Text Box 704"/>
         <xdr:cNvSpPr txBox="1">
@@ -509,7 +1352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -553,9 +1396,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Text Box 705"/>
         <xdr:cNvSpPr txBox="1">
@@ -564,7 +1407,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -608,9 +1451,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Text Box 706"/>
         <xdr:cNvSpPr txBox="1">
@@ -619,7 +1462,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -663,9 +1506,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Text Box 707"/>
         <xdr:cNvSpPr txBox="1">
@@ -674,7 +1517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -718,9 +1561,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Text Box 708"/>
         <xdr:cNvSpPr txBox="1">
@@ -729,7 +1572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -773,9 +1616,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Text Box 709"/>
         <xdr:cNvSpPr txBox="1">
@@ -784,7 +1627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -828,9 +1671,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Text Box 710"/>
         <xdr:cNvSpPr txBox="1">
@@ -839,7 +1682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -883,9 +1726,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Text Box 711"/>
         <xdr:cNvSpPr txBox="1">
@@ -894,7 +1737,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -938,9 +1781,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Text Box 712"/>
         <xdr:cNvSpPr txBox="1">
@@ -949,7 +1792,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -993,9 +1836,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Text Box 713"/>
         <xdr:cNvSpPr txBox="1">
@@ -1004,7 +1847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1048,9 +1891,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Text Box 714"/>
         <xdr:cNvSpPr txBox="1">
@@ -1059,7 +1902,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1103,9 +1946,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Text Box 715"/>
         <xdr:cNvSpPr txBox="1">
@@ -1114,7 +1957,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1158,9 +2001,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Text Box 716"/>
         <xdr:cNvSpPr txBox="1">
@@ -1169,7 +2012,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1213,9 +2056,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Text Box 717"/>
         <xdr:cNvSpPr txBox="1">
@@ -1224,7 +2067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1268,9 +2111,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Text Box 718"/>
         <xdr:cNvSpPr txBox="1">
@@ -1279,7 +2122,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1323,9 +2166,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="Text Box 696"/>
         <xdr:cNvSpPr txBox="1">
@@ -1334,7 +2177,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1378,9 +2221,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="Text Box 697"/>
         <xdr:cNvSpPr txBox="1">
@@ -1389,7 +2232,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1433,9 +2276,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1">
@@ -1444,7 +2287,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1488,9 +2331,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Text Box 699"/>
         <xdr:cNvSpPr txBox="1">
@@ -1499,7 +2342,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1543,9 +2386,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Text Box 700"/>
         <xdr:cNvSpPr txBox="1">
@@ -1554,7 +2397,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1598,9 +2441,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Text Box 701"/>
         <xdr:cNvSpPr txBox="1">
@@ -1609,7 +2452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1653,9 +2496,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="Text Box 703"/>
         <xdr:cNvSpPr txBox="1">
@@ -1664,7 +2507,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1708,9 +2551,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="Text Box 704"/>
         <xdr:cNvSpPr txBox="1">
@@ -1719,7 +2562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1763,9 +2606,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Text Box 705"/>
         <xdr:cNvSpPr txBox="1">
@@ -1774,7 +2617,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1818,9 +2661,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="Text Box 706"/>
         <xdr:cNvSpPr txBox="1">
@@ -1829,7 +2672,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1873,9 +2716,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Text Box 707"/>
         <xdr:cNvSpPr txBox="1">
@@ -1884,7 +2727,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1928,9 +2771,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Text Box 708"/>
         <xdr:cNvSpPr txBox="1">
@@ -1939,7 +2782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1983,9 +2826,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="Text Box 709"/>
         <xdr:cNvSpPr txBox="1">
@@ -1994,7 +2837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2038,9 +2881,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="Text Box 710"/>
         <xdr:cNvSpPr txBox="1">
@@ -2049,7 +2892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2093,9 +2936,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="Text Box 711"/>
         <xdr:cNvSpPr txBox="1">
@@ -2104,7 +2947,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2148,9 +2991,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="Text Box 712"/>
         <xdr:cNvSpPr txBox="1">
@@ -2159,7 +3002,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2203,9 +3046,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="Text Box 713"/>
         <xdr:cNvSpPr txBox="1">
@@ -2214,7 +3057,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2258,9 +3101,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="Text Box 714"/>
         <xdr:cNvSpPr txBox="1">
@@ -2269,7 +3112,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2313,9 +3156,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="Text Box 715"/>
         <xdr:cNvSpPr txBox="1">
@@ -2324,7 +3167,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2368,9 +3211,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="Text Box 716"/>
         <xdr:cNvSpPr txBox="1">
@@ -2379,7 +3222,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2423,9 +3266,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="Text Box 717"/>
         <xdr:cNvSpPr txBox="1">
@@ -2434,7 +3277,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2478,9 +3321,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="Text Box 718"/>
         <xdr:cNvSpPr txBox="1">
@@ -2489,7 +3332,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2533,9 +3376,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="Text Box 696"/>
         <xdr:cNvSpPr txBox="1">
@@ -2544,7 +3387,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2588,9 +3431,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="Text Box 697"/>
         <xdr:cNvSpPr txBox="1">
@@ -2599,7 +3442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2643,9 +3486,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1">
@@ -2654,7 +3497,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2698,9 +3541,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="Text Box 699"/>
         <xdr:cNvSpPr txBox="1">
@@ -2709,7 +3552,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2753,9 +3596,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="Text Box 700"/>
         <xdr:cNvSpPr txBox="1">
@@ -2764,7 +3607,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2808,9 +3651,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="Text Box 701"/>
         <xdr:cNvSpPr txBox="1">
@@ -2819,7 +3662,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2863,9 +3706,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="Text Box 703"/>
         <xdr:cNvSpPr txBox="1">
@@ -2874,7 +3717,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2918,9 +3761,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="Text Box 704"/>
         <xdr:cNvSpPr txBox="1">
@@ -2929,7 +3772,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2973,9 +3816,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="Text Box 705"/>
         <xdr:cNvSpPr txBox="1">
@@ -2984,7 +3827,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3028,9 +3871,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="Text Box 706"/>
         <xdr:cNvSpPr txBox="1">
@@ -3039,7 +3882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3083,9 +3926,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="56" name="Text Box 707"/>
         <xdr:cNvSpPr txBox="1">
@@ -3094,7 +3937,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3138,9 +3981,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="57" name="Text Box 708"/>
         <xdr:cNvSpPr txBox="1">
@@ -3149,7 +3992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3193,9 +4036,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="58" name="Text Box 709"/>
         <xdr:cNvSpPr txBox="1">
@@ -3204,7 +4047,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3248,9 +4091,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="59" name="Text Box 710"/>
         <xdr:cNvSpPr txBox="1">
@@ -3259,7 +4102,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3303,9 +4146,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="60" name="Text Box 711"/>
         <xdr:cNvSpPr txBox="1">
@@ -3314,7 +4157,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3358,9 +4201,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="61" name="Text Box 712"/>
         <xdr:cNvSpPr txBox="1">
@@ -3369,7 +4212,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3413,9 +4256,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="62" name="Text Box 713"/>
         <xdr:cNvSpPr txBox="1">
@@ -3424,7 +4267,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3468,9 +4311,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="63" name="Text Box 714"/>
         <xdr:cNvSpPr txBox="1">
@@ -3479,7 +4322,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3523,9 +4366,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="64" name="Text Box 715"/>
         <xdr:cNvSpPr txBox="1">
@@ -3534,7 +4377,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3578,9 +4421,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="65" name="Text Box 716"/>
         <xdr:cNvSpPr txBox="1">
@@ -3589,7 +4432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3633,9 +4476,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="66" name="Text Box 717"/>
         <xdr:cNvSpPr txBox="1">
@@ -3644,7 +4487,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3688,9 +4531,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="67" name="Text Box 718"/>
         <xdr:cNvSpPr txBox="1">
@@ -3699,7 +4542,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3743,9 +4586,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="68" name="Text Box 696"/>
         <xdr:cNvSpPr txBox="1">
@@ -3754,7 +4597,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3798,9 +4641,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="Text Box 697"/>
         <xdr:cNvSpPr txBox="1">
@@ -3809,7 +4652,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3853,9 +4696,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="70" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1">
@@ -3864,7 +4707,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3908,9 +4751,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="71" name="Text Box 699"/>
         <xdr:cNvSpPr txBox="1">
@@ -3919,7 +4762,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3963,9 +4806,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="72" name="Text Box 700"/>
         <xdr:cNvSpPr txBox="1">
@@ -3974,7 +4817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4018,9 +4861,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="73" name="Text Box 701"/>
         <xdr:cNvSpPr txBox="1">
@@ -4029,7 +4872,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4073,9 +4916,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="74" name="Text Box 703"/>
         <xdr:cNvSpPr txBox="1">
@@ -4084,7 +4927,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4128,9 +4971,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="Text Box 704"/>
         <xdr:cNvSpPr txBox="1">
@@ -4139,7 +4982,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4183,9 +5026,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="76" name="Text Box 705"/>
         <xdr:cNvSpPr txBox="1">
@@ -4194,7 +5037,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4238,9 +5081,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="77" name="Text Box 706"/>
         <xdr:cNvSpPr txBox="1">
@@ -4249,7 +5092,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4293,9 +5136,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="78" name="Text Box 707"/>
         <xdr:cNvSpPr txBox="1">
@@ -4304,7 +5147,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4348,9 +5191,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="79" name="Text Box 708"/>
         <xdr:cNvSpPr txBox="1">
@@ -4359,7 +5202,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4403,9 +5246,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="80" name="Text Box 709"/>
         <xdr:cNvSpPr txBox="1">
@@ -4414,7 +5257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4458,9 +5301,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="81" name="Text Box 710"/>
         <xdr:cNvSpPr txBox="1">
@@ -4469,7 +5312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4513,9 +5356,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="82" name="Text Box 711"/>
         <xdr:cNvSpPr txBox="1">
@@ -4524,7 +5367,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4568,9 +5411,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="83" name="Text Box 712"/>
         <xdr:cNvSpPr txBox="1">
@@ -4579,7 +5422,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4623,9 +5466,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="84" name="Text Box 713"/>
         <xdr:cNvSpPr txBox="1">
@@ -4634,7 +5477,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4678,9 +5521,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="85" name="Text Box 714"/>
         <xdr:cNvSpPr txBox="1">
@@ -4689,7 +5532,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="104775" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4733,9 +5576,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="Text Box 715"/>
         <xdr:cNvSpPr txBox="1">
@@ -4744,7 +5587,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4788,9 +5631,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="87" name="Text Box 716"/>
         <xdr:cNvSpPr txBox="1">
@@ -4799,7 +5642,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4843,9 +5686,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="88" name="Text Box 717"/>
         <xdr:cNvSpPr txBox="1">
@@ -4854,7 +5697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4898,9 +5741,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="89" name="Text Box 718"/>
         <xdr:cNvSpPr txBox="1">
@@ -4909,7 +5752,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="198120"/>
+          <a:off x="3832860" y="192405"/>
           <a:ext cx="95250" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5226,83 +6069,814 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="55.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="55.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" ht="15.15" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:3">
+      <c r="A2" s="4" t="str">
+        <f>UPPER(IF(ISERR(FIND(" ",B2)),B2,LEFT(B2,FIND(" ",B2)-1)))&amp;101</f>
+        <v>AMAZON101</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:3">
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A34" si="0">UPPER(IF(ISERR(FIND(" ",B3)),B3,LEFT(B3,FIND(" ",B3)-1)))&amp;101</f>
+        <v>APPLE101</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:3">
+      <c r="A4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AUDIO101</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="29.55" spans="1:3">
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>BOSE101</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+    <row r="6" ht="15.15" spans="1:3">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIAMOND101</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="7" ht="15.15" spans="1:3">
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>GENICA101</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+    </row>
+    <row r="8" ht="15.15" spans="1:3">
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>LOGITECH101</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="29.55" spans="1:3">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MATTEL101</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="29.55" spans="1:3">
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MUSICGREMLIN101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:3">
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>NINTENDO101</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:3">
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>OPTICAL101</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:3">
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PANASONIC101</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:3">
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>REGENCY101</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="15.15" spans="1:3">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SONY101</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:3">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SONY101</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:3">
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SONY101</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:3">
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TIVO101</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:3">
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ZENITH101</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" spans="1:3">
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>APPLE101</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="1:3">
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>APPLE101</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" spans="1:3">
+      <c r="A22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>APPLE101</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="15.15" spans="1:3">
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ASUS101</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:3">
+      <c r="A24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMODORE101</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:3">
+      <c r="A25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>CONNECTIX101</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" ht="15.15" spans="1:3">
+      <c r="A26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DISKONKEY101</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" spans="1:3">
+      <c r="A27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ENGELBART101</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" ht="15.15" spans="1:3">
+      <c r="A28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>EPSON101</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" spans="1:3">
+      <c r="A29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>GRID101</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="1:3">
+      <c r="A30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>HEWLETT-PACKARD101</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:3">
+      <c r="A31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>IOMEGA101</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" spans="1:3">
+      <c r="A32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>LED101</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" ht="15.15" spans="1:3">
+      <c r="A33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>LEGO101</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" ht="15.15" spans="1:3">
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MICROSD101</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" ht="15.15" spans="1:3">
+      <c r="A35" s="4" t="str">
+        <f t="shared" ref="A35:A58" si="1">UPPER(IF(ISERR(FIND(" ",B35)),B35,LEFT(B35,FIND(" ",B35)-1)))&amp;101</f>
+        <v>MITS101</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" ht="29.55" spans="1:3">
+      <c r="A36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RADIO101</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" ht="15.15" spans="1:3">
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TEXAS101</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" ht="15.15" spans="1:3">
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>APPLE101</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" ht="15.15" spans="1:3">
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>BALLPOINT101</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" ht="15.15" spans="1:3">
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>BELL101</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" ht="15.15" spans="1:3">
+      <c r="A41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>BELLSOUTH101</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" ht="15.15" spans="1:3">
+      <c r="A42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>BLACKBERRY101</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:3">
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>BLUETOOTH101</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" ht="29.55" spans="1:3">
+      <c r="A44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>DANGER101</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" spans="1:3">
+      <c r="A45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>FISHER101</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" ht="15.15" spans="1:3">
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MOTOROLA101</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" ht="29.55" spans="1:3">
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MOTOROLA101</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" ht="29.55" spans="1:3">
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MOTOROLA101</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" spans="1:3">
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MOTOROLA101</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" ht="15.15" spans="1:3">
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MOTOROLA101</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" ht="15.15" spans="1:3">
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NOVATEL101</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" ht="29.55" spans="1:3">
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OLYMPUS101</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" ht="15.15" spans="1:3">
+      <c r="A53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>PAGER101</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" ht="15.15" spans="1:3">
+      <c r="A54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>PALM101</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" ht="15.15" spans="1:3">
+      <c r="A55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>PHONEMATE101</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" spans="1:3">
+      <c r="A56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMSUNG101</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" ht="15.15" spans="1:3">
+      <c r="A57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SHARP101</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:3">
+      <c r="A58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SPEAK101</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId2" display="Amazon Kindle" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023729,00.html"/>
+    <hyperlink ref="B3" r:id="rId3" display="Apple iPod" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023576,00.html"/>
+    <hyperlink ref="B4" r:id="rId4" display="Audio Highway Listen Up" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023609,00.html"/>
+    <hyperlink ref="B5" r:id="rId5" display="Bose Noise-Canceling Headphones" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023745,00.html"/>
+    <hyperlink ref="B6" r:id="rId6" display="Diamond Rio PMP300" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023678,00.html"/>
+    <hyperlink ref="B7" r:id="rId7" display="Genica GN803 Tavarua" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023608,00.html"/>
+    <hyperlink ref="B8" r:id="rId8" display="Logitech Harmony" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023594,00.html"/>
+    <hyperlink ref="B9" r:id="rId9" display="Mattel Electronics Football" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023598,00.html"/>
+    <hyperlink ref="B10" r:id="rId10" display="MusicGremlin Wi-Fi MP3 Player" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023591,00.html"/>
+    <hyperlink ref="B11" r:id="rId11" display="Nintendo Game Boy" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023580,00.html"/>
+    <hyperlink ref="B12" r:id="rId12" display="Optical Media" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023645,00.html"/>
+    <hyperlink ref="B13" r:id="rId13" display="Panasonic DVD-L10" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023578,00.html"/>
+    <hyperlink ref="B14" r:id="rId14" display="Regency TR-1" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023664,00.html"/>
+    <hyperlink ref="B15" r:id="rId15" display="Sony Discman D-50" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023585,00.html"/>
+    <hyperlink ref="B16" r:id="rId16" display="Sony Walkman TPS-L2" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023574,00.html"/>
+    <hyperlink ref="B17" r:id="rId17" display="Sony Watchman" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023599,00.html"/>
+    <hyperlink ref="B18" r:id="rId18" display="TiVo" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023596,00.html"/>
+    <hyperlink ref="B19" r:id="rId19" display="Zenith Space Command" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023681_2023586,00.html"/>
+    <hyperlink ref="B20" r:id="rId20" display="Apple AirPort" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023672,00.html"/>
+    <hyperlink ref="B21" r:id="rId21" display="Apple iPad" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023642,00.html"/>
+    <hyperlink ref="B22" r:id="rId22" display="Apple PowerBook 100" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023640,00.html"/>
+    <hyperlink ref="B23" r:id="rId23" display="Asus Eee PC 700" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023618,00.html"/>
+    <hyperlink ref="B24" r:id="rId24" display="Commodore 64" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023627,00.html"/>
+    <hyperlink ref="B25" r:id="rId25" display="Connectix QuickCam" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023628,00.html"/>
+    <hyperlink ref="B26" r:id="rId26" display="DiskOnKey" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023613,00.html"/>
+    <hyperlink ref="B27" r:id="rId27" display="Engelbart Mouse" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023620,00.html"/>
+    <hyperlink ref="B28" r:id="rId28" display="Epson HX-20" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023644,00.html"/>
+    <hyperlink ref="B29" r:id="rId29" display="GRiD Compass 1101" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023641,00.html"/>
+    <hyperlink ref="B30" r:id="rId30" display="Hewlett-Packard HP-65" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023624,00.html"/>
+    <hyperlink ref="B31" r:id="rId31" display="Iomega Zip Drive" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023621,00.html"/>
+    <hyperlink ref="B32" r:id="rId32" display="LED" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023818,00.html"/>
+    <hyperlink ref="B33" r:id="rId33" display="Lego Mindstorms 1.0" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023583,00.html"/>
+    <hyperlink ref="B34" r:id="rId34" display="MicroSD" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023643,00.html"/>
+    <hyperlink ref="B35" r:id="rId35" display="MITS Altair 8800" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023652,00.html"/>
+    <hyperlink ref="B36" r:id="rId36" display="Radio Shack TRS-80 Model 100" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023626,00.html"/>
+    <hyperlink ref="B37" r:id="rId37" display="Texas Instruments SR-10" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023703_2023675,00.html"/>
+    <hyperlink ref="B38" r:id="rId38" display="Apple iPhone" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023667,00.html"/>
+    <hyperlink ref="B39" r:id="rId39" display="Ballpoint Pen" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023603,00.html"/>
+    <hyperlink ref="B40" r:id="rId40" display="Bell 103" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023715,00.html"/>
+    <hyperlink ref="B41" r:id="rId41" display="Bellsouth IBM Simon" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023677,00.html"/>
+    <hyperlink ref="B42" r:id="rId42" display="BlackBerry 6210" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023714,00.html"/>
+    <hyperlink ref="B43" r:id="rId43" display="Bluetooth Headset" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023592,00.html"/>
+    <hyperlink ref="B44" r:id="rId44" display="Danger Hiptop, a.k.a. Sidekick" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023663,00.html"/>
+    <hyperlink ref="B45" r:id="rId45" display="Fisher AG7 Space Pen" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023736,00.html"/>
+    <hyperlink ref="B46" r:id="rId46" display="Motorola DynaTAC 8000x" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023656,00.html"/>
+    <hyperlink ref="B47" r:id="rId47" display="Motorola Handie-Talkie HT 220 Slimline" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023657,00.html"/>
+    <hyperlink ref="B48" r:id="rId48" display="Motorola PageWriter 2000" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023651,00.html"/>
+    <hyperlink ref="B49" r:id="rId49" display="Motorola Razr V3" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023660,00.html"/>
+    <hyperlink ref="B50" r:id="rId50" display="Motorola StarTac" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023670,00.html"/>
+    <hyperlink ref="B51" r:id="rId51" display="Novatel Wireless MiFi" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023600,00.html"/>
+    <hyperlink ref="B52" r:id="rId52" display="Olympus Zuiko Pearlcorder" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023786,00.html"/>
+    <hyperlink ref="B53" r:id="rId53" display="Pager" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023712,00.html"/>
+    <hyperlink ref="B54" r:id="rId54" display="Palm Pilot 1000" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023610,00.html"/>
+    <hyperlink ref="B55" r:id="rId55" display="PhoneMate Model 400" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023671,00.html"/>
+    <hyperlink ref="B56" r:id="rId56" display="Samsung Uproar" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023604,00.html"/>
+    <hyperlink ref="B57" r:id="rId57" display="Sharp J-SH04" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023648,00.html"/>
+    <hyperlink ref="B58" r:id="rId58" display="Speak &amp; Spell" tooltip="http://content.time.com/time/specials/packages/article/0,28804,2023689_2023708_2023577,00.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>